--- a/biology/Botanique/Coffea_bakossii/Coffea_bakossii.xlsx
+++ b/biology/Botanique/Coffea_bakossii/Coffea_bakossii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coffea bakossii Cheek &amp; Bridson est une espèce de plantes du genre Coffea, de la famille des Rubiaceae[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coffea bakossii Cheek &amp; Bridson est une espèce de plantes du genre Coffea, de la famille des Rubiaceae,.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son épithète spécifique bakossii fait référence aux Monts Bakossi où elle a été observée.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C’est une plante à fleur, du groupe des dicotylédones[3]. Elle est native du Cameroun[4], confinée à la petite aire du Mont Koupé et Mont Bakossi dans la région du Sud-ouest. Son habitat naturel se trouve dans les forêts de plaines à feuilles persistantes et les forêts de montagne à 700–900 m d’altitude. Elle est considérée par l’IUCN comme une espèce en danger "EN"[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C’est une plante à fleur, du groupe des dicotylédones. Elle est native du Cameroun, confinée à la petite aire du Mont Koupé et Mont Bakossi dans la région du Sud-ouest. Son habitat naturel se trouve dans les forêts de plaines à feuilles persistantes et les forêts de montagne à 700–900 m d’altitude. Elle est considérée par l’IUCN comme une espèce en danger "EN".
 </t>
         </is>
       </c>
